--- a/biology/Botanique/Indice_de_Gaussen/Indice_de_Gaussen.xlsx
+++ b/biology/Botanique/Indice_de_Gaussen/Indice_de_Gaussen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Indice de Gaussen (ou Indice Bagnouls-Gaussen) est une méthode de calcul et de comparaison de l'aridité.
 Selon Henri Gaussen (botaniste et biogéographe français), une période donnée est dite aride quand : 
@@ -490,12 +502,12 @@
           ×
           T
     {\displaystyle P&lt;{2\times T}}
-[1].
+.
 (P : précipitations totales en millimètres sur la période donnée, T : température moyenne en °C sur la période donnée)
 Cet indice est très utile quant à l'utilisation d'un diagramme ombrothermique, ce dernier toujours construit sur le modèle d'échelle : 1 °C = 2 mm.
-D'autres indices comme le quotient pluviométrique de Louis Emberger (qui n'est pas unique) ont été définis. Cependant, l'indice de Gaussen, qui est simple et précis, est préférable[2].
-En effet, Henri Gaussen définit précisément les 4 nuances de climat méditerranéen juste basées sur cet indice[3]
-tandis qu'Emberger définit le niveau d'humidité dans une région de climat méditerranéen mais ne borne pas précisément ce climat méditerranéen[2].
+D'autres indices comme le quotient pluviométrique de Louis Emberger (qui n'est pas unique) ont été définis. Cependant, l'indice de Gaussen, qui est simple et précis, est préférable.
+En effet, Henri Gaussen définit précisément les 4 nuances de climat méditerranéen juste basées sur cet indice
+tandis qu'Emberger définit le niveau d'humidité dans une région de climat méditerranéen mais ne borne pas précisément ce climat méditerranéen.
 </t>
         </is>
       </c>
@@ -524,7 +536,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Quotient pluviométrique
 Aridité
